--- a/po_analysis_by_asin/B0BZFVFTWC_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZFVFTWC_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -565,7 +566,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -607,6 +608,313 @@
       </c>
       <c r="B6" t="n">
         <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-53.59952057100707</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63.35373748978834</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-50.03684270691731</v>
+      </c>
+      <c r="D3" t="n">
+        <v>64.71401748175397</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-50.26151999735841</v>
+      </c>
+      <c r="D4" t="n">
+        <v>63.06010831526781</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>13</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-45.36418518728878</v>
+      </c>
+      <c r="D5" t="n">
+        <v>71.55786073631728</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>35</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-20.14614481566314</v>
+      </c>
+      <c r="D6" t="n">
+        <v>92.94933173830368</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45193.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>37</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-20.38042305636975</v>
+      </c>
+      <c r="D7" t="n">
+        <v>98.88023779195989</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-20.00053648462732</v>
+      </c>
+      <c r="D8" t="n">
+        <v>95.42021331264914</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>44</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-18.24402246857701</v>
+      </c>
+      <c r="D9" t="n">
+        <v>97.95160560944097</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>46</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-16.14065100065714</v>
+      </c>
+      <c r="D10" t="n">
+        <v>99.87610065152549</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>53</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-5.586819940897036</v>
+      </c>
+      <c r="D11" t="n">
+        <v>107.5992524410252</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>55</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-4.254887398829669</v>
+      </c>
+      <c r="D12" t="n">
+        <v>115.8515952388666</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>57</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-1.334890218979557</v>
+      </c>
+      <c r="D13" t="n">
+        <v>110.9869417929817</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45263.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>59</v>
+      </c>
+      <c r="C14" t="n">
+        <v>6.143501711016082</v>
+      </c>
+      <c r="D14" t="n">
+        <v>117.2799618864204</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>61</v>
+      </c>
+      <c r="C15" t="n">
+        <v>5.699137713993807</v>
+      </c>
+      <c r="D15" t="n">
+        <v>116.3632502067352</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>64</v>
+      </c>
+      <c r="C16" t="n">
+        <v>4.104072447334478</v>
+      </c>
+      <c r="D16" t="n">
+        <v>124.6142034848946</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45284.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>66</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.986881054697804</v>
+      </c>
+      <c r="D17" t="n">
+        <v>125.6500990927476</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45291.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>68</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.70791775408112</v>
+      </c>
+      <c r="D18" t="n">
+        <v>120.9206100984725</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>70</v>
+      </c>
+      <c r="C19" t="n">
+        <v>10.35245978567983</v>
+      </c>
+      <c r="D19" t="n">
+        <v>128.0372536278802</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>72</v>
+      </c>
+      <c r="C20" t="n">
+        <v>13.10252086951075</v>
+      </c>
+      <c r="D20" t="n">
+        <v>128.0804699188382</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0BZFVFTWC_po_data.xlsx
+++ b/po_analysis_by_asin/B0BZFVFTWC_po_data.xlsx
@@ -621,7 +621,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -640,16 +640,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -658,12 +648,6 @@
       <c r="B2" t="n">
         <v>4</v>
       </c>
-      <c r="C2" t="n">
-        <v>-53.59952057100707</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63.35373748978834</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -672,12 +656,6 @@
       <c r="B3" t="n">
         <v>6</v>
       </c>
-      <c r="C3" t="n">
-        <v>-50.03684270691731</v>
-      </c>
-      <c r="D3" t="n">
-        <v>64.71401748175397</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -686,12 +664,6 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
-      <c r="C4" t="n">
-        <v>-50.26151999735841</v>
-      </c>
-      <c r="D4" t="n">
-        <v>63.06010831526781</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -700,12 +672,6 @@
       <c r="B5" t="n">
         <v>13</v>
       </c>
-      <c r="C5" t="n">
-        <v>-45.36418518728878</v>
-      </c>
-      <c r="D5" t="n">
-        <v>71.55786073631728</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -714,12 +680,6 @@
       <c r="B6" t="n">
         <v>35</v>
       </c>
-      <c r="C6" t="n">
-        <v>-20.14614481566314</v>
-      </c>
-      <c r="D6" t="n">
-        <v>92.94933173830368</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -728,12 +688,6 @@
       <c r="B7" t="n">
         <v>37</v>
       </c>
-      <c r="C7" t="n">
-        <v>-20.38042305636975</v>
-      </c>
-      <c r="D7" t="n">
-        <v>98.88023779195989</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -742,12 +696,6 @@
       <c r="B8" t="n">
         <v>42</v>
       </c>
-      <c r="C8" t="n">
-        <v>-20.00053648462732</v>
-      </c>
-      <c r="D8" t="n">
-        <v>95.42021331264914</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -756,12 +704,6 @@
       <c r="B9" t="n">
         <v>44</v>
       </c>
-      <c r="C9" t="n">
-        <v>-18.24402246857701</v>
-      </c>
-      <c r="D9" t="n">
-        <v>97.95160560944097</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -770,12 +712,6 @@
       <c r="B10" t="n">
         <v>46</v>
       </c>
-      <c r="C10" t="n">
-        <v>-16.14065100065714</v>
-      </c>
-      <c r="D10" t="n">
-        <v>99.87610065152549</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -784,12 +720,6 @@
       <c r="B11" t="n">
         <v>53</v>
       </c>
-      <c r="C11" t="n">
-        <v>-5.586819940897036</v>
-      </c>
-      <c r="D11" t="n">
-        <v>107.5992524410252</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -798,12 +728,6 @@
       <c r="B12" t="n">
         <v>55</v>
       </c>
-      <c r="C12" t="n">
-        <v>-4.254887398829669</v>
-      </c>
-      <c r="D12" t="n">
-        <v>115.8515952388666</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -812,12 +736,6 @@
       <c r="B13" t="n">
         <v>57</v>
       </c>
-      <c r="C13" t="n">
-        <v>-1.334890218979557</v>
-      </c>
-      <c r="D13" t="n">
-        <v>110.9869417929817</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -826,12 +744,6 @@
       <c r="B14" t="n">
         <v>59</v>
       </c>
-      <c r="C14" t="n">
-        <v>6.143501711016082</v>
-      </c>
-      <c r="D14" t="n">
-        <v>117.2799618864204</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -840,12 +752,6 @@
       <c r="B15" t="n">
         <v>61</v>
       </c>
-      <c r="C15" t="n">
-        <v>5.699137713993807</v>
-      </c>
-      <c r="D15" t="n">
-        <v>116.3632502067352</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -854,12 +760,6 @@
       <c r="B16" t="n">
         <v>64</v>
       </c>
-      <c r="C16" t="n">
-        <v>4.104072447334478</v>
-      </c>
-      <c r="D16" t="n">
-        <v>124.6142034848946</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -868,12 +768,6 @@
       <c r="B17" t="n">
         <v>66</v>
       </c>
-      <c r="C17" t="n">
-        <v>9.986881054697804</v>
-      </c>
-      <c r="D17" t="n">
-        <v>125.6500990927476</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -882,12 +776,6 @@
       <c r="B18" t="n">
         <v>68</v>
       </c>
-      <c r="C18" t="n">
-        <v>2.70791775408112</v>
-      </c>
-      <c r="D18" t="n">
-        <v>120.9206100984725</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -896,12 +784,6 @@
       <c r="B19" t="n">
         <v>70</v>
       </c>
-      <c r="C19" t="n">
-        <v>10.35245978567983</v>
-      </c>
-      <c r="D19" t="n">
-        <v>128.0372536278802</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -909,12 +791,6 @@
       </c>
       <c r="B20" t="n">
         <v>72</v>
-      </c>
-      <c r="C20" t="n">
-        <v>13.10252086951075</v>
-      </c>
-      <c r="D20" t="n">
-        <v>128.0804699188382</v>
       </c>
     </row>
   </sheetData>
